--- a/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dileep_K\Desktop\DCP_18\FrameworkPOM-master\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B24A20-B718-4FCC-A2DA-38C2EC05BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD57DC4-4E99-4F2D-B16C-E110A608880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>TC101</t>
   </si>
@@ -114,10 +114,106 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>fopeg75807@ixunbo.com</t>
-  </si>
-  <si>
     <t>Welcome@123</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Doe Johns</t>
+  </si>
+  <si>
+    <t>Texas, United States of India, 500090</t>
+  </si>
+  <si>
+    <t>NYC, United States of India, 500000</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>New Jersy</t>
+  </si>
+  <si>
+    <t>New york</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>9080706050</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Account Created</t>
+  </si>
+  <si>
+    <t>Logged In As</t>
+  </si>
+  <si>
+    <t>ACCOUNT CREATED!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logged in as John Doe </t>
+  </si>
+  <si>
+    <t>Account Deleted</t>
+  </si>
+  <si>
+    <t>ACCOUNT DELETED!</t>
+  </si>
+  <si>
+    <t>op0eg80790093@ixunbo.com</t>
   </si>
 </sst>
 </file>
@@ -169,10 +265,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -488,141 +593,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC914BC-115C-4E99-A655-A098063134BC}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="26" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="26" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="20.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dileep_K\Desktop\DCP_18\FrameworkPOM-master\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD57DC4-4E99-4F2D-B16C-E110A608880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B595A-FB8D-4B2B-9F96-38EFEAD95DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
@@ -204,16 +204,16 @@
     <t>ACCOUNT CREATED!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Logged in as John Doe </t>
-  </si>
-  <si>
     <t>Account Deleted</t>
   </si>
   <si>
     <t>ACCOUNT DELETED!</t>
   </si>
   <si>
-    <t>op0eg80790093@ixunbo.com</t>
+    <t>Logged in as John Doe</t>
+  </si>
+  <si>
+    <t>kilhklikjop0eg8079093@ixunbo.com</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC914BC-115C-4E99-A655-A098063134BC}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="66" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -831,10 +831,10 @@
         <v>53</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dileep_K\Desktop\DCP_18\FrameworkPOM-master\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B595A-FB8D-4B2B-9F96-38EFEAD95DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE4F3E-FB35-4D68-A411-D2ABDE9B7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
+    <workbookView xWindow="2540" yWindow="1290" windowWidth="14400" windowHeight="7270" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
   <sheets>
     <sheet name="regression" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>TC101</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>kilhklikjop0eg8079093@ixunbo.com</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>haxapef299@ixunbo.com</t>
+  </si>
+  <si>
+    <t>Login To Your Account</t>
+  </si>
+  <si>
+    <t>Login to your account</t>
+  </si>
+  <si>
+    <t>TC106</t>
+  </si>
+  <si>
+    <t>haxape@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome@1234</t>
+  </si>
+  <si>
+    <t>TC107</t>
+  </si>
+  <si>
+    <t>Kanna18</t>
   </si>
 </sst>
 </file>
@@ -593,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC914BC-115C-4E99-A655-A098063134BC}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="26" x14ac:dyDescent="0.35"/>
@@ -604,7 +634,7 @@
     <col min="1" max="1" width="20.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
@@ -837,14 +867,90 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{89B35990-389A-4C7A-8FC0-7A201128435F}"/>
     <hyperlink ref="C11" r:id="rId2" xr:uid="{A5385DD9-67F4-4BD7-B336-14990F6FDCA2}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{D0F5E61C-ABE5-4B82-B508-80ABEC95B31E}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{4F6A360A-1FBE-44B6-84CE-F8FABBA33529}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{0D96A163-B2A9-4DF9-B0C8-895D5DE519F0}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{FEF4F45D-92DB-4A01-BAB3-A79532D4EC76}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{189A283C-8AD9-4BEC-BC6E-5A6A0A773024}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dileep_K\Desktop\DCP_18\FrameworkPOM-master\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE4F3E-FB35-4D68-A411-D2ABDE9B7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9054152E-3A72-4BEA-8034-386BC10E87EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1290" windowWidth="14400" windowHeight="7270" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
   <sheets>
     <sheet name="regression" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>TC101</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>Kanna18</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Just a sample check</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Typing the Message….</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>C:\Users\Dileep_K\Desktop</t>
   </si>
 </sst>
 </file>
@@ -626,7 +644,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="26" x14ac:dyDescent="0.35"/>
@@ -635,8 +653,8 @@
     <col min="2" max="2" width="57.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
@@ -906,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -917,7 +935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
@@ -927,8 +945,17 @@
       <c r="C19" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -937,6 +964,15 @@
       </c>
       <c r="C20" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
